--- a/biology/Botanique/Pongamia/Pongamia.xlsx
+++ b/biology/Botanique/Pongamia/Pongamia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pongamia est un genre botanique de la famille des Fabaceae. Il semble que ce genre devienne caduc. Ses espèces ont été reclassées dans d'autres genres, principalement dans le genre Millettia mais aussi dans le genre Callerya. 
 Ainsi Pongamia pinnata = Pongamia glabra = Millettia pinnata, et Pongamia atropurpurea =  Callerya atropurpurea .
